--- a/medicine/Médecine vétérinaire/Émile_Decroix/Émile_Decroix.xlsx
+++ b/medicine/Médecine vétérinaire/Émile_Decroix/Émile_Decroix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mile_Decroix</t>
+          <t>Émile_Decroix</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Émile Decroix, né à Savy-Berlette le 28 août 1821[1] et mort à Paris le 8 avril 1901, est un vétérinaire militaire et philanthrope français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Émile Decroix, né à Savy-Berlette le 28 août 1821 et mort à Paris le 8 avril 1901, est un vétérinaire militaire et philanthrope français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mile_Decroix</t>
+          <t>Émile_Decroix</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Engagé dans de nombreuses actions philanthropiques, Émile Decroix est surtout connu comme le propagateur de l'hippophagie en France et pour son action, en tant que pionnier, de la lutte anti-tabac[1]. 
-Le 22 juin 1902, est inauguré à Savy-Berlette, le monument consacré à sa mémoire : un buste installé devant la mairie, en l'honneur de l'homme qui fut « propagateur de la viande de cheval et fondateur de la Société contre l'abus du tabac »[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Engagé dans de nombreuses actions philanthropiques, Émile Decroix est surtout connu comme le propagateur de l'hippophagie en France et pour son action, en tant que pionnier, de la lutte anti-tabac. 
+Le 22 juin 1902, est inauguré à Savy-Berlette, le monument consacré à sa mémoire : un buste installé devant la mairie, en l'honneur de l'homme qui fut « propagateur de la viande de cheval et fondateur de la Société contre l'abus du tabac ». 
 Une statue à sa mémoire se trouve de nos jours à l'entrée du parc Georges-Brassens de Paris (emplacement des anciens abattoirs de chevaux de Vaugirard), le long de la rue Brancion.
 </t>
         </is>
